--- a/biology/Biochimie/Ginkgolide/Ginkgolide.xlsx
+++ b/biology/Biochimie/Ginkgolide/Ginkgolide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un ginkgolide est un diterpène hexacyclique à 20 atomes de carbone et comprenant trois cycles γ-lactone ainsi que deux groupes hydroxyle et un groupe tert-butyle, ce dernier étant exceptionnel pour un composé naturel. Les ginkgolides ont été isolés pour la première fois en 1932 à partir de Ginkgo biloba[1]. Leur structure a commencé à être élucidée en 1967 avec le ginkgolide B[2]. On en connaissait, fin 2014, cinq molécules différentes, appelées ginkgolides A, B, C, J et M :
-La synthèse totale des ginkgolides s'est révélée être trop complexe pour produire des quantités suffisantes de molécules[2], de sorte que la maîtrise de leur biosynthèse s'avère préférable. Celle-ci est issue du géranylgéranyl-pyrophosphate[3]. D'une manière générale, la plupart des terpénoïdes naturels sont produits à partir de l'isopentényl-pyrophosphate à travers la voie du méthylérythritol phosphate (voie MEP), qui produit également du diméthylallyl-pyrophosphate à partir de pyruvate et de D-glycéraldéhyde-3-phosphate : l'addition de ces deux molécules conduit au géranylgéranyl-pyrophosphate sous l'action de la géranylgéranyle diphosphate synthase.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un ginkgolide est un diterpène hexacyclique à 20 atomes de carbone et comprenant trois cycles γ-lactone ainsi que deux groupes hydroxyle et un groupe tert-butyle, ce dernier étant exceptionnel pour un composé naturel. Les ginkgolides ont été isolés pour la première fois en 1932 à partir de Ginkgo biloba. Leur structure a commencé à être élucidée en 1967 avec le ginkgolide B. On en connaissait, fin 2014, cinq molécules différentes, appelées ginkgolides A, B, C, J et M :
+La synthèse totale des ginkgolides s'est révélée être trop complexe pour produire des quantités suffisantes de molécules, de sorte que la maîtrise de leur biosynthèse s'avère préférable. Celle-ci est issue du géranylgéranyl-pyrophosphate. D'une manière générale, la plupart des terpénoïdes naturels sont produits à partir de l'isopentényl-pyrophosphate à travers la voie du méthylérythritol phosphate (voie MEP), qui produit également du diméthylallyl-pyrophosphate à partir de pyruvate et de D-glycéraldéhyde-3-phosphate : l'addition de ces deux molécules conduit au géranylgéranyl-pyrophosphate sous l'action de la géranylgéranyle diphosphate synthase.
 </t>
         </is>
       </c>
